--- a/KD model/NLP4StatRef-EurostatGlossaryMapping_20210609.xlsx
+++ b/KD model/NLP4StatRef-EurostatGlossaryMapping_20210609.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro\LuapLab\Prestations\Union Européenne\Eurostat\KnowledgeDatabase\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120263E-1A61-42BE-9062-67C07DBC2843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780F3674-7961-4776-9528-1F60BA4006A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" firstSheet="2" activeTab="1" xr2:uid="{006257E1-FC65-45C7-B2AD-2E5C4C3E9D09}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" firstSheet="2" activeTab="2" xr2:uid="{006257E1-FC65-45C7-B2AD-2E5C4C3E9D09}"/>
   </bookViews>
   <sheets>
     <sheet name="HistoVersion" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CD-Glossary'!$A$1:$K$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'KD-Glossary'!$A$1:$N$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'KD-Glossary'!$A$1:$N$70</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="195">
   <si>
     <t>Text</t>
   </si>
@@ -309,12 +309,6 @@
   </si>
   <si>
     <t>URI of each skos:concept</t>
-  </si>
-  <si>
-    <t>Date to be file in when there is an extraction of the Eurostat Glossary.</t>
-  </si>
-  <si>
-    <t>dct:issued</t>
   </si>
   <si>
     <t>dct:publisher</t>
@@ -1412,121 +1406,121 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1941,13 +1935,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A1" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>36</v>
@@ -1958,13 +1952,13 @@
         <v>44356</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.65">
@@ -2096,11 +2090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65B7F5F-4587-4AA2-BFEE-09C90A675087}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3096" ySplit="408" topLeftCell="D1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -2159,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>29</v>
@@ -2183,17 +2177,17 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="128" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="124">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2210,18 +2204,18 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="3"/>
       <c r="K4" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.65">
@@ -2231,18 +2225,18 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.65">
@@ -2257,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
@@ -2284,7 +2278,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
@@ -2310,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F8" s="107" t="s">
         <v>0</v>
@@ -2336,7 +2330,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" s="107" t="s">
         <v>0</v>
@@ -2372,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>1</v>
@@ -2398,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" s="83" t="s">
         <v>1</v>
@@ -2434,12 +2428,12 @@
       <c r="F13" s="8"/>
       <c r="G13" s="76"/>
       <c r="H13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
       <c r="K13" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.65">
@@ -2457,12 +2451,12 @@
       <c r="F14" s="8"/>
       <c r="G14" s="76"/>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="3"/>
       <c r="K14" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.65">
@@ -2477,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="105">
         <v>1</v>
@@ -2503,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="106" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" s="105">
         <v>1</v>
@@ -2529,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="107" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>158</v>
       </c>
       <c r="G17" s="105">
         <v>1</v>
@@ -2555,15 +2549,15 @@
         <v>1</v>
       </c>
       <c r="E18" s="106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="143"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="5"/>
       <c r="I18" s="107"/>
       <c r="J18" s="107"/>
       <c r="K18" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L18" s="84"/>
     </row>
@@ -2579,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>0</v>
@@ -2607,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="107" t="s">
         <v>0</v>
@@ -2633,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" s="107" t="s">
         <v>0</v>
@@ -2686,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F23" s="107" t="s">
         <v>0</v>
@@ -2711,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" s="107" t="s">
         <v>0</v>
@@ -2736,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="107" t="s">
         <v>0</v>
@@ -2761,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F26" s="107" t="s">
         <v>0</v>
@@ -2782,14 +2776,14 @@
         <v>2</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="116" t="s">
+      <c r="D27" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="128" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="117">
+      <c r="G27" s="123">
         <v>1</v>
       </c>
       <c r="H27" s="107" t="s">
@@ -2798,7 +2792,7 @@
       <c r="I27" s="107"/>
       <c r="J27" s="107"/>
       <c r="K27" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.65">
@@ -2809,14 +2803,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="129" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="117"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I28" s="107"/>
       <c r="J28" s="107"/>
@@ -2830,19 +2824,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="117"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="123"/>
       <c r="H29" s="107" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J29" s="107"/>
       <c r="K29" s="53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="102.9" x14ac:dyDescent="0.65">
@@ -2853,19 +2847,19 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="117"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="123"/>
       <c r="H30" s="107" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J30" s="107"/>
       <c r="K30" s="53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="44.1" x14ac:dyDescent="0.65">
@@ -2876,23 +2870,23 @@
         <v>4</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="116" t="s">
-        <v>181</v>
+      <c r="D31" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="128" t="s">
+        <v>179</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="123" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.65">
@@ -2903,14 +2897,14 @@
         <v>4</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116" t="s">
+      <c r="D32" s="129"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="117"/>
+      <c r="G32" s="123"/>
       <c r="H32" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2924,19 +2918,19 @@
         <v>4</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="123"/>
       <c r="H33" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="102.9" x14ac:dyDescent="0.65">
@@ -2947,19 +2941,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="117"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.65">
@@ -2970,14 +2964,14 @@
         <v>4</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="116"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="117"/>
+      <c r="G35" s="123"/>
       <c r="H35" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2991,23 +2985,23 @@
         <v>4</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="116" t="s">
-        <v>187</v>
+      <c r="D36" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="128" t="s">
+        <v>185</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="123" t="s">
         <v>10</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I36" s="107"/>
       <c r="J36" s="107"/>
       <c r="K36" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.65">
@@ -3018,14 +3012,14 @@
         <v>4</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116" t="s">
+      <c r="D37" s="129"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="117"/>
+      <c r="G37" s="123"/>
       <c r="H37" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I37" s="107"/>
       <c r="J37" s="107"/>
@@ -3039,19 +3033,19 @@
         <v>4</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="117"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J38" s="107"/>
       <c r="K38" s="53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="102.9" x14ac:dyDescent="0.65">
@@ -3062,19 +3056,19 @@
         <v>4</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="117"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J39" s="107"/>
       <c r="K39" s="53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.65">
@@ -3085,14 +3079,14 @@
         <v>4</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="116"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="128"/>
       <c r="F40" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="117"/>
+      <c r="G40" s="123"/>
       <c r="H40" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I40" s="107"/>
       <c r="J40" s="107"/>
@@ -3106,14 +3100,14 @@
         <v>2</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="116" t="s">
-        <v>188</v>
+      <c r="D41" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="128" t="s">
+        <v>186</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="123" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="107" t="s">
@@ -3133,12 +3127,12 @@
         <v>2</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="118" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="117"/>
+      <c r="G42" s="123"/>
       <c r="H42" s="107" t="s">
         <v>12</v>
       </c>
@@ -3154,17 +3148,17 @@
         <v>2</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="117"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="123"/>
       <c r="H43" s="107" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="107"/>
       <c r="K43" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.65">
@@ -3175,17 +3169,17 @@
         <v>2</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="117"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="123"/>
       <c r="H44" s="107" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="107"/>
       <c r="K44" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.65">
@@ -3196,12 +3190,12 @@
         <v>2</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="116"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="128"/>
       <c r="F45" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="117"/>
+      <c r="G45" s="123"/>
       <c r="H45" s="107" t="s">
         <v>13</v>
       </c>
@@ -3216,17 +3210,17 @@
       <c r="B46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="151" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="116" t="s">
-        <v>194</v>
+      <c r="C46" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="128" t="s">
+        <v>192</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="123" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -3245,13 +3239,13 @@
       <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="152"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="118" t="s">
+      <c r="C47" s="121"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="117"/>
+      <c r="G47" s="123"/>
       <c r="H47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3266,18 +3260,18 @@
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="117"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="123"/>
       <c r="H48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.65">
@@ -3287,18 +3281,18 @@
       <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="117"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="123"/>
       <c r="H49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.65">
@@ -3308,15 +3302,15 @@
       <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="152"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="116"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="117"/>
+        <v>163</v>
+      </c>
+      <c r="G50" s="123"/>
       <c r="H50" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I50" s="107"/>
       <c r="J50" s="107"/>
@@ -3329,13 +3323,13 @@
       <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="153"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="116"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="128"/>
       <c r="F51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="117"/>
+      <c r="G51" s="123"/>
       <c r="H51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3355,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="107" t="s">
         <v>161</v>
-      </c>
-      <c r="F52" s="107" t="s">
-        <v>163</v>
       </c>
       <c r="G52" s="105">
         <v>1</v>
@@ -3380,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G53" s="76">
         <v>1</v>
@@ -3403,13 +3397,13 @@
         <v>4</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="103" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>0</v>
@@ -3438,6 +3432,16 @@
   </sheetData>
   <autoFilter ref="A1:K54" xr:uid="{E201601C-0217-4F72-B294-396D8744DE8C}"/>
   <mergeCells count="26">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F47:F49"/>
     <mergeCell ref="C46:C51"/>
     <mergeCell ref="G46:G51"/>
     <mergeCell ref="G3:G5"/>
@@ -3454,16 +3458,6 @@
     <mergeCell ref="G41:G45"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3484,13 +3478,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB80F0C-5296-4CE8-810B-03360A5D4E36}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4188" ySplit="408" topLeftCell="I4" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4188" ySplit="408" activePane="bottomRight"/>
       <selection pane="topRight" sqref="A1:K73"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.7" x14ac:dyDescent="0.65"/>
@@ -3526,28 +3520,28 @@
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.65">
@@ -3558,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -3572,7 +3566,7 @@
       </c>
       <c r="L2" s="43"/>
       <c r="M2" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="82"/>
@@ -3585,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -3599,7 +3593,7 @@
       </c>
       <c r="L3" s="43"/>
       <c r="M3" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N3" s="47"/>
       <c r="O3" s="82"/>
@@ -3612,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -3626,7 +3620,7 @@
       </c>
       <c r="L4" s="43"/>
       <c r="M4" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="82"/>
@@ -3639,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -3653,7 +3647,7 @@
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="82"/>
@@ -3666,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -3680,7 +3674,7 @@
       </c>
       <c r="L6" s="43"/>
       <c r="M6" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="82"/>
@@ -3693,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
@@ -3707,7 +3701,7 @@
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="82"/>
@@ -3720,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -3734,7 +3728,7 @@
       </c>
       <c r="L8" s="43"/>
       <c r="M8" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N8" s="47"/>
       <c r="O8" s="82"/>
@@ -3747,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
@@ -3761,7 +3755,7 @@
       </c>
       <c r="L9" s="43"/>
       <c r="M9" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="47"/>
       <c r="O9" s="82"/>
@@ -3774,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="49"/>
@@ -3788,7 +3782,7 @@
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="80"/>
@@ -3801,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
@@ -3815,7 +3809,7 @@
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="82"/>
@@ -3828,7 +3822,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="49"/>
@@ -3842,7 +3836,7 @@
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N12" s="47"/>
       <c r="O12" s="80"/>
@@ -3872,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>29</v>
@@ -3883,7 +3877,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="23"/>
@@ -3891,11 +3885,11 @@
         <v>45</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O14" s="80"/>
     </row>
@@ -3907,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>29</v>
@@ -3919,10 +3913,10 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15" s="83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K15" s="76" t="s">
         <v>45</v>
@@ -3930,7 +3924,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O15" s="80"/>
     </row>
@@ -3946,7 +3940,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="35"/>
@@ -3954,7 +3948,7 @@
         <v>46</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>44</v>
@@ -3963,7 +3957,7 @@
         <v>45</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="102"/>
@@ -3989,7 +3983,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>47</v>
@@ -4013,14 +4007,14 @@
       <c r="D18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="132"/>
+      <c r="E18" s="115"/>
       <c r="F18" s="18"/>
       <c r="G18" s="37"/>
       <c r="H18" s="34" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>47</v>
@@ -4044,25 +4038,25 @@
       <c r="D19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="132"/>
+      <c r="E19" s="115"/>
       <c r="F19" s="18"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="137" t="s">
+      <c r="I19" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="133" t="s">
+      <c r="K19" s="143" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="139" t="s">
-        <v>149</v>
+      <c r="N19" s="149" t="s">
+        <v>147</v>
       </c>
       <c r="O19" s="80"/>
     </row>
@@ -4077,16 +4071,16 @@
       <c r="D20" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="132"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="18"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="134"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="31"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="140"/>
+      <c r="N20" s="150"/>
       <c r="O20" s="80"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.65">
@@ -4105,7 +4099,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>44</v>
@@ -4114,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="72"/>
@@ -4132,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="37"/>
@@ -4149,7 +4143,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M22" s="38"/>
       <c r="N22" s="102"/>
@@ -4188,7 +4182,7 @@
       <c r="N23" s="47"/>
       <c r="O23" s="80"/>
     </row>
-    <row r="24" spans="1:15" ht="29.4" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
       <c r="A24" s="27">
         <v>44363</v>
       </c>
@@ -4196,180 +4190,184 @@
         <v>2</v>
       </c>
       <c r="C24" s="36"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>87</v>
+      <c r="I24" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="33"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="33"/>
       <c r="N24" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O24" s="80"/>
     </row>
-    <row r="25" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
-      <c r="A25" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="39"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="80"/>
+    </row>
+    <row r="26" spans="1:15" ht="58.8" x14ac:dyDescent="0.65">
+      <c r="A26" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="80"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A27" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="31" t="s">
+      <c r="I27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" s="80"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A26" s="19"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="80"/>
-    </row>
-    <row r="27" spans="1:15" ht="58.8" x14ac:dyDescent="0.65">
-      <c r="A27" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="49"/>
       <c r="K27" s="34" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="32" t="s">
-        <v>78</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="102"/>
       <c r="O27" s="80"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
       <c r="A28" s="27">
         <v>44363</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34" t="s">
+      <c r="G28" s="37"/>
+      <c r="H28" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="33" t="s">
+      <c r="I28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>45</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="102"/>
+        <v>75</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="O28" s="80"/>
     </row>
-    <row r="29" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A29" s="27">
         <v>44363</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="37"/>
       <c r="H29" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="31" t="s">
+      <c r="I29" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="33" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="32" t="s">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="102"/>
       <c r="O29" s="80"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.65">
@@ -4384,27 +4382,25 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="37"/>
       <c r="H30" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>44</v>
+      <c r="I30" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="K30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="102"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="47"/>
       <c r="O30" s="80"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.65">
@@ -4412,32 +4408,34 @@
         <v>44363</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>25</v>
+      <c r="E31" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="104" t="s">
+      <c r="G31" s="35"/>
+      <c r="H31" s="116" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>47</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="33"/>
-      <c r="N31" s="47"/>
+      <c r="N31" s="47" t="s">
+        <v>72</v>
+      </c>
       <c r="O31" s="80"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.65">
@@ -4445,34 +4443,32 @@
         <v>44363</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>74</v>
+      <c r="E32" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="141" t="s">
+      <c r="G32" s="37"/>
+      <c r="H32" s="104" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>47</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="33"/>
-      <c r="N32" s="47" t="s">
-        <v>72</v>
-      </c>
+      <c r="N32" s="47"/>
       <c r="O32" s="80"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.65">
@@ -4480,28 +4476,28 @@
         <v>44363</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>172</v>
+      </c>
       <c r="D33" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="18"/>
       <c r="G33" s="37"/>
       <c r="H33" s="104" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>45</v>
+      <c r="K33" s="112" t="s">
+        <v>53</v>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="33"/>
@@ -4516,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>1</v>
@@ -4528,7 +4524,7 @@
         <v>46</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>47</v>
@@ -4549,27 +4545,29 @@
         <v>4</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="119" t="s">
+        <v>70</v>
+      </c>
       <c r="F35" s="18"/>
       <c r="G35" s="37"/>
       <c r="H35" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="31"/>
+      <c r="I35" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="41"/>
       <c r="M35" s="33"/>
       <c r="N35" s="47"/>
       <c r="O35" s="80"/>
@@ -4582,29 +4580,29 @@
         <v>4</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="144" t="s">
-        <v>70</v>
+      <c r="E36" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="37"/>
       <c r="H36" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>68</v>
+      <c r="I36" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="41"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="33"/>
       <c r="N36" s="47"/>
       <c r="O36" s="80"/>
@@ -4617,26 +4615,24 @@
         <v>4</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="E37" s="119"/>
       <c r="F37" s="18"/>
       <c r="G37" s="37"/>
       <c r="H37" s="104" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="112" t="s">
         <v>45</v>
       </c>
       <c r="L37" s="42"/>
@@ -4645,83 +4641,83 @@
       <c r="O37" s="80"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A38" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="144"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="104" t="s">
+      <c r="G38" s="17"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="80"/>
+    </row>
+    <row r="39" spans="1:15" ht="98.1" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A39" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="44"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="80"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A40" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="80"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A39" s="19"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="80"/>
-    </row>
-    <row r="40" spans="1:15" ht="98.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="I40" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="109"/>
+      <c r="K40" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="33"/>
+      <c r="N40" s="111"/>
       <c r="O40" s="80"/>
     </row>
-    <row r="41" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A41" s="27">
         <v>44363</v>
       </c>
@@ -4729,29 +4725,25 @@
         <v>2</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="107" t="s">
-        <v>9</v>
+      <c r="D41" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="153" t="s">
+        <v>6</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="145" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="109"/>
-      <c r="K41" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" s="127" t="s">
-        <v>44</v>
-      </c>
+      <c r="G41" s="152"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="141"/>
+      <c r="L41" s="142"/>
       <c r="M41" s="33"/>
-      <c r="N41" s="111"/>
+      <c r="N41" s="132" t="s">
+        <v>51</v>
+      </c>
       <c r="O41" s="80"/>
     </row>
     <row r="42" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
@@ -4762,25 +4754,19 @@
         <v>2</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="123" t="s">
-        <v>6</v>
-      </c>
+      <c r="D42" s="138"/>
+      <c r="E42" s="153"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="116"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="128"/>
       <c r="J42" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="120"/>
-      <c r="L42" s="127"/>
+        <v>50</v>
+      </c>
+      <c r="K42" s="141"/>
+      <c r="L42" s="142"/>
       <c r="M42" s="33"/>
-      <c r="N42" s="126" t="s">
-        <v>51</v>
-      </c>
+      <c r="N42" s="132"/>
       <c r="O42" s="80"/>
     </row>
     <row r="43" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
@@ -4791,87 +4777,103 @@
         <v>2</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="123"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="153"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="120"/>
-      <c r="L43" s="127"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="141"/>
+      <c r="L43" s="142"/>
       <c r="M43" s="33"/>
-      <c r="N43" s="126"/>
+      <c r="N43" s="132"/>
       <c r="O43" s="80"/>
     </row>
-    <row r="44" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="123"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A44" s="19"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="120"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="126"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="80"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A45" s="19"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+    <row r="45" spans="1:15" ht="117.6" x14ac:dyDescent="0.65">
+      <c r="A45" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="12"/>
+      <c r="G45" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="O45" s="80"/>
     </row>
-    <row r="46" spans="1:15" ht="117.6" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A46" s="27">
         <v>44363</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="F46" s="18"/>
-      <c r="G46" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="32" t="s">
-        <v>61</v>
+      <c r="G46" s="139"/>
+      <c r="H46" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="33"/>
+      <c r="N46" s="132" t="s">
+        <v>51</v>
       </c>
       <c r="O46" s="80"/>
     </row>
@@ -4882,36 +4884,24 @@
       <c r="B47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="119" t="s">
-        <v>60</v>
-      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F47" s="18"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="145" t="s">
-        <v>46</v>
-      </c>
+      <c r="G47" s="139"/>
+      <c r="H47" s="140"/>
       <c r="I47" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="127" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K47" s="141"/>
+      <c r="L47" s="142"/>
       <c r="M47" s="33"/>
-      <c r="N47" s="126" t="s">
-        <v>51</v>
-      </c>
+      <c r="N47" s="133"/>
       <c r="O47" s="80"/>
     </row>
     <row r="48" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.65">
@@ -4921,24 +4911,28 @@
       <c r="B48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="5" t="s">
-        <v>185</v>
+      <c r="C48" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="117" t="s">
+        <v>180</v>
       </c>
       <c r="F48" s="18"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="145"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
       <c r="I48" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="120"/>
-      <c r="L48" s="127"/>
+        <v>139</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="141"/>
+      <c r="L48" s="142"/>
       <c r="M48" s="33"/>
-      <c r="N48" s="121"/>
+      <c r="N48" s="133"/>
       <c r="O48" s="80"/>
     </row>
     <row r="49" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.65">
@@ -4948,71 +4942,63 @@
       <c r="B49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="142" t="s">
-        <v>182</v>
+      <c r="C49" s="26"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="117" t="s">
+        <v>183</v>
       </c>
       <c r="F49" s="18"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J49" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="120"/>
-      <c r="L49" s="127"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="142"/>
       <c r="M49" s="33"/>
-      <c r="N49" s="121"/>
+      <c r="N49" s="133"/>
       <c r="O49" s="80"/>
     </row>
-    <row r="50" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="142" t="s">
-        <v>185</v>
-      </c>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="121"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="12"/>
       <c r="O50" s="80"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A51" s="19"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="A51" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="12"/>
+      <c r="G51" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="80"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A52" s="27">
         <v>44363</v>
       </c>
@@ -5020,19 +5006,33 @@
         <v>2</v>
       </c>
       <c r="C52" s="36"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>16</v>
+      </c>
       <c r="F52" s="18"/>
-      <c r="G52" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="32"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="141" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="33"/>
+      <c r="N52" s="132" t="s">
+        <v>51</v>
+      </c>
       <c r="O52" s="80"/>
     </row>
     <row r="53" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -5043,133 +5043,125 @@
         <v>2</v>
       </c>
       <c r="C53" s="36"/>
-      <c r="D53" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="107" t="s">
-        <v>16</v>
+      <c r="D53" s="138"/>
+      <c r="E53" s="83" t="s">
+        <v>14</v>
       </c>
       <c r="F53" s="18"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="145" t="s">
+      <c r="G53" s="139"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="141"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="80"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="80"/>
+    </row>
+    <row r="55" spans="1:15" ht="98.1" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A55" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" s="44"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="80"/>
+    </row>
+    <row r="56" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A56" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="I53" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="J53" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="K53" s="120" t="s">
+      <c r="I56" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="109"/>
+      <c r="K56" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="127" t="s">
+      <c r="L56" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="33"/>
-      <c r="N53" s="126" t="s">
+      <c r="M56" s="33"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="80"/>
+    </row>
+    <row r="57" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A57" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" s="141"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="O53" s="80"/>
-    </row>
-    <row r="54" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A54" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="80"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A55" s="19"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="80"/>
-    </row>
-    <row r="56" spans="1:15" ht="98.1" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A56" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="K56" s="44"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="O56" s="80"/>
-    </row>
-    <row r="57" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A57" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="145" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="109"/>
-      <c r="K57" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="M57" s="33"/>
-      <c r="N57" s="111"/>
       <c r="O57" s="80"/>
     </row>
     <row r="58" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
@@ -5180,25 +5172,19 @@
         <v>2</v>
       </c>
       <c r="C58" s="26"/>
-      <c r="D58" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="123" t="s">
-        <v>6</v>
-      </c>
+      <c r="D58" s="138"/>
+      <c r="E58" s="153"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="116"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="128"/>
       <c r="J58" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" s="120"/>
-      <c r="L58" s="127"/>
+        <v>50</v>
+      </c>
+      <c r="K58" s="141"/>
+      <c r="L58" s="142"/>
       <c r="M58" s="33"/>
-      <c r="N58" s="126" t="s">
-        <v>51</v>
-      </c>
+      <c r="N58" s="132"/>
       <c r="O58" s="80"/>
     </row>
     <row r="59" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
@@ -5209,141 +5195,147 @@
         <v>2</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="123"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="153"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59" s="120"/>
-      <c r="L59" s="127"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="141"/>
+      <c r="L59" s="142"/>
       <c r="M59" s="33"/>
-      <c r="N59" s="126"/>
+      <c r="N59" s="132"/>
       <c r="O59" s="80"/>
     </row>
-    <row r="60" spans="1:15" ht="30.3" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A60" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="123"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A60" s="19"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K60" s="120"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="126"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="12"/>
       <c r="O60" s="80"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A61" s="19"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
+      <c r="A61" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="12"/>
+      <c r="G61" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="80"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:15" ht="48.6" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A62" s="27">
         <v>44363</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="8"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F62" s="18"/>
-      <c r="G62" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="32"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K62" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="33"/>
+      <c r="N62" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="O62" s="80"/>
     </row>
-    <row r="63" spans="1:15" ht="48.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A63" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B63" s="26" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A63" s="19"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="80"/>
+    </row>
+    <row r="64" spans="1:15" ht="58.8" x14ac:dyDescent="0.65">
+      <c r="A64" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K63" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="L63" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M63" s="33"/>
-      <c r="N63" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="O63" s="80"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A64" s="19"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="C64" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="12"/>
+      <c r="G64" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="39"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="32" t="s">
+        <v>167</v>
+      </c>
       <c r="O64" s="80"/>
     </row>
-    <row r="65" spans="1:15" ht="58.8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A65" s="27">
         <v>44363</v>
       </c>
@@ -5351,115 +5343,111 @@
         <v>4</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="32" t="s">
-        <v>169</v>
-      </c>
+      <c r="G65" s="152"/>
+      <c r="H65" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" s="42"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="32"/>
       <c r="O65" s="80"/>
     </row>
-    <row r="66" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
       <c r="A66" s="27">
         <v>44363</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>170</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C66" s="26"/>
       <c r="D66" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="124"/>
+      <c r="G66" s="152"/>
       <c r="H66" s="104" t="s">
         <v>46</v>
       </c>
       <c r="I66" s="107" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="K66" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="L66" s="42"/>
+      <c r="L66" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="M66" s="33"/>
-      <c r="N66" s="32"/>
+      <c r="N66" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="O66" s="80"/>
     </row>
-    <row r="67" spans="1:15" ht="44.1" x14ac:dyDescent="0.65">
-      <c r="A67" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>25</v>
-      </c>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A67" s="19"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="K67" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="L67" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M67" s="33"/>
-      <c r="N67" s="32" t="s">
-        <v>173</v>
-      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="12"/>
       <c r="O67" s="80"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A68" s="19"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
+    <row r="68" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A68" s="27">
+        <v>44363</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="12"/>
+      <c r="G68" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="76"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="151" t="s">
+        <v>42</v>
+      </c>
       <c r="O68" s="80"/>
     </row>
-    <row r="69" spans="1:15" ht="14.7" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A69" s="27">
         <v>44363</v>
       </c>
@@ -5467,123 +5455,97 @@
         <v>2</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="83" t="s">
+        <v>9</v>
+      </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="76"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="125" t="s">
-        <v>42</v>
-      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="151"/>
       <c r="O69" s="80"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A70" s="27">
-        <v>44363</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="125"/>
+    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A70" s="94"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="101"/>
       <c r="O70" s="80"/>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A71" s="94"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="100"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="101"/>
-      <c r="O71" s="80"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N71" xr:uid="{E201601C-0217-4F72-B294-396D8744DE8C}"/>
+  <autoFilter ref="A1:N70" xr:uid="{E201601C-0217-4F72-B294-396D8744DE8C}"/>
   <mergeCells count="38">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="N57:N59"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L14" r:id="rId1" xr:uid="{826AFD4E-AAF9-4669-AFEE-DFEDC7D387F7}"/>
-    <hyperlink ref="J24" r:id="rId2" display="4@xsd:dateTime" xr:uid="{C809E85C-CB43-4939-9219-2F217FED31D5}"/>
-    <hyperlink ref="L27" r:id="rId3" location="SeqNum" xr:uid="{F3CDEDF8-4C54-4A7E-8FF2-58067391F501}"/>
-    <hyperlink ref="L29" r:id="rId4" xr:uid="{3EEFC321-F819-44DB-8F60-8B5289B776F2}"/>
-    <hyperlink ref="M12" r:id="rId5" xr:uid="{B9C61FF5-A3EB-4D28-81B4-9D2997063A54}"/>
-    <hyperlink ref="M11" r:id="rId6" xr:uid="{428BF63F-1055-4947-B61B-C09EAE9D46F3}"/>
-    <hyperlink ref="M10" r:id="rId7" xr:uid="{D3DFCCBF-3228-4EA9-AEA6-3420B5BCBD67}"/>
-    <hyperlink ref="L21" r:id="rId8" xr:uid="{100BA07B-5164-48BE-8A6C-4FE3224A69B8}"/>
-    <hyperlink ref="L16" r:id="rId9" location="glossary-scheme" xr:uid="{F71DA4BD-593A-4E9D-85E8-31CCD5325C63}"/>
-    <hyperlink ref="L22" r:id="rId10" location="eurostat-resource" xr:uid="{A1F853A0-04B8-427C-A33B-5B42C8CBACCB}"/>
-    <hyperlink ref="L28" r:id="rId11" location="glossary-concept" xr:uid="{2BBA8B26-EA8C-42A6-8837-51C3B60B3EAE}"/>
-    <hyperlink ref="L30" r:id="rId12" location="eurostat-resource" xr:uid="{06DD61FF-323E-4C93-B23D-2FE048B8D25C}"/>
+    <hyperlink ref="L26" r:id="rId2" location="SeqNum" xr:uid="{F3CDEDF8-4C54-4A7E-8FF2-58067391F501}"/>
+    <hyperlink ref="L28" r:id="rId3" xr:uid="{3EEFC321-F819-44DB-8F60-8B5289B776F2}"/>
+    <hyperlink ref="M12" r:id="rId4" xr:uid="{B9C61FF5-A3EB-4D28-81B4-9D2997063A54}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{428BF63F-1055-4947-B61B-C09EAE9D46F3}"/>
+    <hyperlink ref="M10" r:id="rId6" xr:uid="{D3DFCCBF-3228-4EA9-AEA6-3420B5BCBD67}"/>
+    <hyperlink ref="L21" r:id="rId7" xr:uid="{100BA07B-5164-48BE-8A6C-4FE3224A69B8}"/>
+    <hyperlink ref="L16" r:id="rId8" location="glossary-scheme" xr:uid="{F71DA4BD-593A-4E9D-85E8-31CCD5325C63}"/>
+    <hyperlink ref="L22" r:id="rId9" location="eurostat-resource" xr:uid="{A1F853A0-04B8-427C-A33B-5B42C8CBACCB}"/>
+    <hyperlink ref="L27" r:id="rId10" location="glossary-concept" xr:uid="{2BBA8B26-EA8C-42A6-8837-51C3B60B3EAE}"/>
+    <hyperlink ref="L29" r:id="rId11" location="eurostat-resource" xr:uid="{06DD61FF-323E-4C93-B23D-2FE048B8D25C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5622,15 +5584,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A1" s="60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A2" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="61">
         <v>44344</v>
@@ -5648,7 +5610,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A5" s="60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
